--- a/overwatch_postavy_excel.xlsx
+++ b/overwatch_postavy_excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adulik\OneDrive\Dokumenty\GitHub\MIP10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C5D249-F5E4-43D0-A1FE-E64C14E0DC33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C2422F-78B6-4B5F-8165-E21B2A99EB9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -153,19 +153,28 @@
     <t>Zenyatta</t>
   </si>
   <si>
-    <t xml:space="preserve">                         Damage</t>
+    <t xml:space="preserve">                           Damage</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -391,12 +400,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -421,7 +424,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -707,7 +716,7 @@
   <dimension ref="B12:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -861,154 +870,154 @@
     </row>
     <row r="16" spans="6:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="10"/>
+      <c r="D17" s="18"/>
       <c r="E17" s="19" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="15" t="s">
+      <c r="E18" s="13" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="E19" s="13" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="15" t="s">
+      <c r="E20" s="13" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E21" s="15" t="s">
+      <c r="E21" s="13" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="15" t="s">
+      <c r="E22" s="13" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E23" s="15" t="s">
+      <c r="E23" s="13" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="14"/>
-      <c r="E24" s="15" t="s">
+      <c r="D24" s="12"/>
+      <c r="E24" s="13" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D25" s="14"/>
-      <c r="E25" s="15" t="s">
+      <c r="D25" s="12"/>
+      <c r="E25" s="13" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="14"/>
-      <c r="E26" s="15"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="13"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="14"/>
-      <c r="E27" s="15"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="13"/>
     </row>
     <row r="28" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C28" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="17"/>
-      <c r="E28" s="18"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
